--- a/loaded_influencer_data/laurasptt/laurasptt_video.xlsx
+++ b/loaded_influencer_data/laurasptt/laurasptt_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,2492 +506,2543 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@laurasptt/video/7489502655090380054</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5513</v>
+      </c>
+      <c r="C2" t="n">
+        <v>281</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✨ Opération brillance avec @Kérastase &amp; @Ansara.coiffure ✨
+J’ai testé le soin Fusio-Dose Gloss Anti-Frizz en salon, et le résultat parle de lui-même !</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5.224015962270996</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.097043352076909</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1269726101940867</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.03627788862688192</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@laurasptt/video/7488008242518396182</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14600</v>
+      </c>
+      <c r="C3" t="n">
+        <v>608</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>En partenariat avec Rimmel 💄
+Gros coup de cœur pour les eyeliners ultra précis et les rouges à lèvres au confort incroyable!</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4.232876712328767</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.164383561643835</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0547945205479452</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@laurasptt/photo/7487246084029369622</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7529</v>
+      </c>
+      <c r="C4" t="n">
+        <v>534</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Juste un petit aperçu ahah #trend #ugc #ugccreator #creatricedecontenu #creatriceugc #havhavhav #</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7.172267233364324</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.092575375215832</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0796918581484925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0796918581484925</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7486540743964675350</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>5088</v>
-      </c>
-      <c r="C2" t="n">
-        <v>479</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="B5" t="n">
+        <v>6334</v>
+      </c>
+      <c r="C5" t="n">
+        <v>493</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Sortir profiter du soleil oui… mais toujours avec une bonne protection ! 🧴
 Qui d’autre ne sort jamais sans sa crème solaire ? ☀️</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>9.473270440251573</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9.414308176100629</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0589622641509434</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.09827044025157233</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="H5" t="n">
+        <v>7.878118092832334</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.783391221976633</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0947268708556994</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1105146826649826</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7485802690124074262</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>8221</v>
-      </c>
-      <c r="C3" t="n">
-        <v>527</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>98</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="B6" t="n">
+        <v>10500</v>
+      </c>
+      <c r="C6" t="n">
+        <v>538</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>99</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>GRWM ⛅️
 @Isispharma @Kiehl's Since 1851 @iUNIK @Pull&amp;Bear @JENNYFER @Kylie Jenner</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>6.532052061792968</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.410412358593845</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1216397031991242</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.192069091351417</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="H6" t="n">
+        <v>5.266666666666667</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.123809523809523</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9428571428571428</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7484984354704280854</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>7056</v>
-      </c>
-      <c r="C4" t="n">
-        <v>495</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>102</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="B7" t="n">
+        <v>7141</v>
+      </c>
+      <c r="C7" t="n">
+        <v>504</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>103</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Je n’aime pas les avocats… sauf quand ils prennent soin de mon regard 🥑
 *Collaboration commerciale*</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>7.171201814058957</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.015306122448979</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1558956916099773</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.445578231292517</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="H7" t="n">
+        <v>7.239882369416048</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.057835037109649</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1820473323063997</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.442375017504551</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7483938317331877142</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>47700</v>
-      </c>
-      <c r="C5" t="n">
-        <v>594</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>185</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="B8" t="n">
+        <v>47900</v>
+      </c>
+      <c r="C8" t="n">
+        <v>599</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>186</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>✨ Vente privée Innisfree sur The Bradery jusqu’au 31 mars ! ✨
 C’est le moment parfait pour choper toutes les pépites de la marque à petit prix !</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>1.259958071278826</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.245283018867924</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.01467505241090147</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.3878406708595388</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H8" t="n">
+        <v>1.267223382045929</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.250521920668058</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.01670146137787057</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3883089770354906</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/photo/7483584683075194134</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B9" t="n">
         <v>12600</v>
       </c>
-      <c r="C6" t="n">
-        <v>608</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="C9" t="n">
+        <v>613</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Pour une fois que je trouve un jean à ma taille, ça mérite quand même un post mdrr #zara #zaraoutfit #zarajeans</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>4.912698412698413</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.825396825396826</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0873015873015873</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="H9" t="n">
+        <v>4.96031746031746</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.865079365079366</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.03174603174603174</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7482823745250397462</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>7422</v>
-      </c>
-      <c r="C7" t="n">
-        <v>608</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="B10" t="n">
+        <v>7455</v>
+      </c>
+      <c r="C10" t="n">
+        <v>572</v>
+      </c>
+      <c r="D10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>4</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Pour une fois que je trouve un jean à ma taille, ça mérite quand même un post mdrr #zara #zaraoutfit #zarajeans</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8.340070061977904</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8.19186203179736</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1482080301805443</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.05389382915656157</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@laurasptt/video/7480973198436076822</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8049</v>
-      </c>
-      <c r="C8" t="n">
-        <v>565</v>
-      </c>
-      <c r="D8" t="n">
-        <v>28</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>En ce moment, je teste de nouveaux formats pour sublimer les produits skincare 🧖‍♀️
 Petit à petit, on affine les skills ✨</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H10" t="n">
+        <v>8.075117370892018</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.672702883970489</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4024144869215292</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.05365526492287055</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@laurasptt/video/7480973198436076822</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8049</v>
+      </c>
+      <c r="C11" t="n">
+        <v>565</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>En ce moment, je teste de nouveaux formats pour sublimer les produits skincare 🧖‍♀️
+Petit à petit, on affine les skills ✨</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7.367374829171326</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I11" t="n">
         <v>7.019505528637097</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.3478693005342278</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L11" t="n">
         <v>0.04969561436203255</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7480230217999682818</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B12" t="n">
         <v>20700</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C12" t="n">
         <v>700</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D12" t="n">
         <v>21</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>11</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>En partenariat avec Innisfree Europe 🧖‍♀️
 Le Super Volcanic Pore Clay Mask fait partie de mes nouveaux indispensables ! Il nettoie en douceur, réduit l’apparence des pores et laisse une peau incroyablement douce 🌋</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H12" t="n">
         <v>3.483091787439613</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I12" t="n">
         <v>3.381642512077295</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.1014492753623188</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L12" t="n">
         <v>0.05314009661835749</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7477657750445657367</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B13" t="n">
         <v>16700</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C13" t="n">
         <v>763</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D13" t="n">
         <v>10</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>77</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>3 produits skincare, 3 étapes pour une peau au top 🧖‍♀️ @Gallinée Microbiome Skincare
 Et si vos produits faisaient partie de ma prochaine routine ? 😉</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H13" t="n">
         <v>4.62874251497006</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I13" t="n">
         <v>4.568862275449102</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.05988023952095808</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L13" t="n">
         <v>0.4610778443113773</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7477251293803744534</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B14" t="n">
         <v>10500</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C14" t="n">
         <v>718</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D14" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>91</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>En partenariat avec Niche Beauty Lab 💫
 @Niche Beauty Lab @Transparent Labs #nichebeautylab #collaboration</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H14" t="n">
         <v>6.923809523809524</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I14" t="n">
         <v>6.838095238095238</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.08571428571428572</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L14" t="n">
         <v>0.8666666666666666</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7476880008171113750</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B15" t="n">
         <v>8473</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C15" t="n">
         <v>632</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D15" t="n">
         <v>14</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>141</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Qui a dit qu'on ne pouvait pas tout faire avec un seul produit ? 🤭
 @SEPHORA @sephora @Sephora Collection</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H15" t="n">
         <v>7.62421810456745</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I15" t="n">
         <v>7.458987371651126</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.1652307329163225</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L15" t="n">
         <v>1.664109524371533</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7476425248896748822</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B16" t="n">
         <v>10800</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C16" t="n">
         <v>566</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D16" t="n">
         <v>6</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>58</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Mon indispensable skincare ! ✨
 Cette petite astuce avec la Beta-Glucan 3X Barrier Cream fait toute la différence dans ma routine. Hydratation, éclat et confort au rendez-vous, je l’utilise au quotidien et je ne peux plus m’en passer ! 🤭</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H16" t="n">
         <v>5.296296296296296</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I16" t="n">
         <v>5.240740740740741</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.05555555555555555</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L16" t="n">
         <v>0.537037037037037</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7473564836689906966</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B17" t="n">
         <v>11900</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C17" t="n">
         <v>578</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>En partenariat avec Lanolips 👄
 Une touche de couleur et une hydratation longue durée ⏱️
 @Lanolips @SEPHORA</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>4.991596638655462</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I17" t="n">
         <v>4.857142857142857</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.134453781512605</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L17" t="n">
         <v>0.02521008403361345</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7472802548915768598</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B18" t="n">
         <v>12500</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>613</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>15</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>11</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Le blush que j’utiliserai probablement jusqu’à ma vieillesse 😆 @Rare Beauty
 #rarebeauty #rarebeautyblush</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H18" t="n">
         <v>5.024</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I18" t="n">
         <v>4.904</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.12</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L18" t="n">
         <v>0.08800000000000001</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7470972385726876950</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B19" t="n">
         <v>127400</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C19" t="n">
         <v>551</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D19" t="n">
         <v>25</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>21</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Un peu déçue finalement 🥲
 #chocolatdubai #chocolat #chocolate #dubaichocolate #bm #bmfrance</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H19" t="n">
         <v>0.4521193092621664</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I19" t="n">
         <v>0.4324960753532182</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.01962323390894819</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L19" t="n">
         <v>0.01648351648351648</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7470954343924075798</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B20" t="n">
         <v>17300</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C20" t="n">
         <v>1055</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D20" t="n">
         <v>14</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>309</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Et toi, quelle est la brume que tu préfères ? 🌸✨
 Profite de -30% avec le code LAURA30 ! 💖
 @skilparfums #Skil</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H20" t="n">
         <v>6.179190751445087</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I20" t="n">
         <v>6.098265895953757</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.08092485549132948</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L20" t="n">
         <v>1.786127167630058</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7470894175865589014</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B21" t="n">
         <v>4647</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C21" t="n">
         <v>770</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D21" t="n">
         <v>9</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>99</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Des cheveux plus longs, plus forts et plus brillants ? C’est possible avec les gummies @In Haircare ! 🌿💆‍♀️</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H21" t="n">
         <v>16.76350333548526</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I21" t="n">
         <v>16.56982999784807</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.1936733376371853</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L21" t="n">
         <v>2.130406714009038</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7470594818658340118</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B22" t="n">
         <v>22900</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C22" t="n">
         <v>340</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D22" t="n">
         <v>6</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>11</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Non, la création de contenu ce n’est pas « juste faire des vidéos » 😅 C’est bien plus que ça !
 Parce que chaque projet demande du temps, de la créativité et une vraie stratégie 💡</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H22" t="n">
         <v>1.510917030567686</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I22" t="n">
         <v>1.48471615720524</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.02620087336244541</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L22" t="n">
         <v>0.04803493449781659</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7469116273637575958</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B23" t="n">
         <v>7965</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C23" t="n">
         <v>733</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D23" t="n">
         <v>25</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>127</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Des gouttes bronzantes qui donnent un éclat instantané et un blush aux reflets multidimensionnels, c’est parfait pour les jours où on veut juste un effet naturel et glowy 🥰</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>9.516635279347144</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
         <v>9.202762084118016</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.3138731952291274</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L23" t="n">
         <v>1.594475831763968</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7466113769542913302</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>14200</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>524</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>14</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>14</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>« Ah t’es influenceuse » 😑
 #guess #trend #humour #ugc #ugccreator #creatricedecontenu #viral #creatriceugc</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>3.788732394366197</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>3.690140845070423</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.09859154929577464</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L24" t="n">
         <v>0.09859154929577464</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-09</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7465006766628097302</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B25" t="n">
         <v>17600</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C25" t="n">
         <v>646</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D25" t="n">
         <v>16</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>77</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>I’m a girl who loves ✨skincare✨
 #routine #ugc #ugccreator #creatricedecontenu #skincare #skincareroutine</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>3.761363636363636</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>3.670454545454545</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L25" t="n">
         <v>0.4375000000000001</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7464280318695001366</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B26" t="n">
         <v>8045</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C26" t="n">
         <v>716</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D26" t="n">
         <v>11</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>29</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Cet hiver, je protège et chouchoute ma peau avec la Collection Karité de L’OCCITANE 💫
 Des indispensables à toujours avoir sous la main 💛</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H26" t="n">
         <v>9.036668738346799</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I26" t="n">
         <v>8.899937849596022</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.1367308887507769</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L26" t="n">
         <v>0.36047234307023</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7463902435694759190</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B27" t="n">
         <v>3596</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C27" t="n">
         <v>453</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D27" t="n">
         <v>5</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>16</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>En partenariat avec Emma Sleep 💤
 En ce moment JUSQU’À -50% sur le site emma.fr 🛏️
 -10% supplémentaires avec LAURASPTT</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H27" t="n">
         <v>12.73637374860957</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I27" t="n">
         <v>12.59733036707453</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.1390433815350389</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L27" t="n">
         <v>0.4449388209121246</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-01-27</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7462799227656113430</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B28" t="n">
         <v>20700</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C28" t="n">
         <v>258</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D28" t="n">
         <v>11</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>19</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>@Too Faced #toofaced #toofacedcosmetics #makeup #lipcombo #combolevres</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H28" t="n">
         <v>1.29951690821256</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I28" t="n">
         <v>1.246376811594203</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.05314009661835749</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L28" t="n">
         <v>0.09178743961352658</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-01-26</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/photo/7462291942173478146</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B29" t="n">
         <v>6772</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C29" t="n">
         <v>704</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D29" t="n">
         <v>11</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>26</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Des pépites 🫶✨
 @Atolea | Waterproof Jewelry #collaboration #bijoux #bijouxacierinoxydable</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H29" t="n">
         <v>10.55818074424099</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I29" t="n">
         <v>10.39574719432959</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.1624335499113999</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L29" t="n">
         <v>0.383933845245127</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-01-23</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7459367321438588182</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B30" t="n">
         <v>13500</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C30" t="n">
         <v>388</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>12</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>#trend #foryou #pourtoi #ugc #ugccreator #ugccontentcreator #ugccommunity</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H30" t="n">
         <v>2.874074074074074</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I30" t="n">
         <v>2.874074074074074</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>0.08888888888888889</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7457963643666418966</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B31" t="n">
         <v>26300</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C31" t="n">
         <v>538</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D31" t="n">
         <v>7</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>46</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Collaboration commerciale avec Topicrem 🫶
 Sérum hydratant, soin contour des yeux, et crème teintée… HYDRA+ est ma nouvelle routine beauté pour un teint éclatant et protégé toute la journée ! 😌</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H31" t="n">
         <v>2.072243346007605</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I31" t="n">
         <v>2.045627376425855</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.02661596958174905</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L31" t="n">
         <v>0.1749049429657795</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7456850958203637014</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B32" t="n">
         <v>19600</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C32" t="n">
         <v>574</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D32" t="n">
         <v>11</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>29</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Bientôt, le combo lèvres va détrôner mon blush en tant qu’indispensable 🙃
 @L’Oréal Paris @neonail_france</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H32" t="n">
         <v>2.98469387755102</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I32" t="n">
         <v>2.928571428571429</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.05612244897959184</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L32" t="n">
         <v>0.1479591836734694</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-01-10</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7455777682039622934</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B33" t="n">
         <v>8669</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C33" t="n">
         <v>636</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D33" t="n">
         <v>14</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>167</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Le mascara iconique Size Up revient en force avec 4 nouvelles teintes ✨
 Résultat : un volume de dingue et des cils qui attirent tous les regards 😍 Vous avez une teinte préférée ? 💬</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H33" t="n">
         <v>7.497981312723498</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I33" t="n">
         <v>7.336486330603299</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.1614949821201984</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L33" t="n">
         <v>1.926404429576652</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-01-07</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7454491816486882582</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B34" t="n">
         <v>13200</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C34" t="n">
         <v>361</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D34" t="n">
         <v>6</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>29</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Le mascara iconique Size Up revient en force avec 4 nouvelles teintes ✨
 Résultat : un volume de dingue et des cils qui attirent tous les regards 😍 Vous avez une teinte préférée ? 💬</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H34" t="n">
         <v>2.78030303030303</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I34" t="n">
         <v>2.734848484848485</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.04545454545454546</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L34" t="n">
         <v>0.2196969696969697</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-01-04</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7453131688911195414</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B35" t="n">
         <v>15900</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C35" t="n">
         <v>467</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D35" t="n">
         <v>11</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>40</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Collaboration commerciale avec @Laboratoire Garancia
 Le luxe d’un soin express : 30 secondes pour transformer ma peau avec le Pschitt Magique 🌿</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H35" t="n">
         <v>3.006289308176101</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I35" t="n">
         <v>2.937106918238994</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.06918238993710692</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L35" t="n">
         <v>0.2515723270440252</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2024-12-31</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7451647842717928726</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B36" t="n">
         <v>6140</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C36" t="n">
         <v>438</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D36" t="n">
         <v>18</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>43</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>🤎🍫🌰🪵
 #pourtoi #4kampé #ancreeatonport #remix #4kampéremix #foryoupage❤️❤️ #foryou #fyp</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H36" t="n">
         <v>7.42671009771987</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I36" t="n">
         <v>7.133550488599348</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.2931596091205212</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L36" t="n">
         <v>0.7003257328990228</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2024-12-28</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7451222230022901014</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B37" t="n">
         <v>11000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C37" t="n">
         <v>296</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D37" t="n">
         <v>6</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>17</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Le plus beau des voyages est celui qui éveille les sens ✨
 Découvrez les trésors de Provence avec les coffrets cadeaux L’Occitane en Provence, parfaits pour offrir ou se faire plaisir ! 🎁</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H37" t="n">
         <v>2.745454545454545</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I37" t="n">
         <v>2.690909090909091</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.05454545454545455</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L37" t="n">
         <v>0.1545454545454545</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2024-12-24</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7450535853710953750</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B38" t="n">
         <v>12800</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C38" t="n">
         <v>485</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D38" t="n">
         <v>5</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>35</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Avec un collant polaire parce que flemme d’avoir froid 😁❄️
 #outfit #outfitideas #outfits #outfitsinspo #skirt</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H38" t="n">
         <v>3.828125</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I38" t="n">
         <v>3.7890625</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.0390625</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L38" t="n">
         <v>0.2734375</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2024-12-22</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7449803468845419798</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B39" t="n">
         <v>8636</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C39" t="n">
         <v>405</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D39" t="n">
         <v>5</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>23</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Collaboration commerciale avec L'Oréal Paris 🎄
 Pour les retardataires ! 🎁
 @L’Oréal Paris #lorealparismakeup</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H39" t="n">
         <v>4.747568318666049</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I39" t="n">
         <v>4.68967114404817</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.05789717461787865</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L39" t="n">
         <v>0.2663270032422418</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2024-12-21</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7449435853446794518</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B40" t="n">
         <v>8458</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C40" t="n">
         <v>376</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D40" t="n">
         <v>3</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>27</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Collaboration commerciale avec Redken 💁‍♀️
 25 bénéfices en un seul spray!!
 @Redken #redkenfr #oneunited #cheveux</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H40" t="n">
         <v>4.480964767084417</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I40" t="n">
         <v>4.445495388980847</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.03546937810357059</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L40" t="n">
         <v>0.3192244029321353</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-12-19</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7448306519625485590</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B41" t="n">
         <v>11300</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C41" t="n">
         <v>328</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D41" t="n">
         <v>4</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>22</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
         <v>2.938053097345133</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I41" t="n">
         <v>2.902654867256637</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.03539823008849557</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L41" t="n">
         <v>0.1946902654867257</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-12-18</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7447207889615293718</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B42" t="n">
         <v>32700</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C42" t="n">
         <v>460</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D42" t="n">
         <v>11</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>26</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Moment self-care avec @Medicube Global @medicube 💫
 #medicube #medicubepartner</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H42" t="n">
         <v>1.440366972477064</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I42" t="n">
         <v>1.406727828746177</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.03363914373088685</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L42" t="n">
         <v>0.07951070336391437</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-12-15</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7446465904386264342</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B43" t="n">
         <v>7128</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C43" t="n">
         <v>658</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D43" t="n">
         <v>13</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>159</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Se préparer, c’est un art. Good Girl, c’est la signature ✍️ @Carolina Herrera
 #collaborationcommerciale</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H43" t="n">
         <v>9.413580246913581</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I43" t="n">
         <v>9.231200897867565</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.1823793490460157</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L43" t="n">
         <v>2.230639730639731</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-12-12</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7445997784928439574</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B44" t="n">
         <v>4069</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C44" t="n">
         <v>303</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D44" t="n">
         <v>7</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>20</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Home 🇵🇹🇵🇹 #CapCut #portugal #portugal🇵🇹 #saudade #portugalviral #portugaltiktok #trend #portugaltravel</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H44" t="n">
         <v>7.618579503563529</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I44" t="n">
         <v>7.446547063160482</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.1720324404030474</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L44" t="n">
         <v>0.4915212582944212</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-12-10</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7445707823973043458</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B45" t="n">
         <v>11300</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C45" t="n">
         <v>168</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D45" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>13</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Collaboration commerciale avec Savon le Naturel 🫧
 Deux savons rechargeables et une éco-recharge d’1L pour consommer autrement 🌿</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H45" t="n">
         <v>1.495575221238938</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I45" t="n">
         <v>1.486725663716814</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.008849557522123894</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L45" t="n">
         <v>0.1150442477876106</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-12-8</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7444609156545269014</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B46" t="n">
         <v>13600</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C46" t="n">
         <v>336</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D46" t="n">
         <v>12</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>18</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Avec un montage toujours en période d’entraînement mdrr 🙂‍↔️
 #makeup #slavicgirl #ukraine #ukrainian</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H46" t="n">
         <v>2.558823529411765</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I46" t="n">
         <v>2.470588235294117</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L46" t="n">
         <v>0.1323529411764706</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-12-8</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7443865019361676566</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B47" t="n">
         <v>4252</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C47" t="n">
         <v>523</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D47" t="n">
         <v>6</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>40</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Collaboration commerciale avec L'Oréal Paris @L’Oréal Paris ✨
 L’incontournable de la saison beauté est là : Le calendrier de l’avent de L’Oréal Paris, avec 24 trésors full-size, dont 8 pépites de 2024 !</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H47" t="n">
         <v>12.4412041392286</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I47" t="n">
         <v>12.30009407337723</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.1411100658513641</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L47" t="n">
         <v>0.9407337723424271</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-12-5</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7442737143220407584</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B48" t="n">
         <v>2537</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C48" t="n">
         <v>270</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D48" t="n">
         <v>4</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>15</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Routine d’hiver activée ! ✨ Une huile de douche pour la douceur, une crème pour apaiser… Merci</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H48" t="n">
         <v>10.80015766653528</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I48" t="n">
         <v>10.64249113125739</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.1576665352778873</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L48" t="n">
         <v>0.5912495072920773</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-12-3</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7441941624977886497</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B49" t="n">
         <v>18900</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C49" t="n">
         <v>268</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D49" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>16</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>#outfit #shein #louisvuitton #calvinklein #adidas #campus #ukraine #ukrainiangirl #slavic #ugccontentcreator</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H49" t="n">
         <v>1.470899470899471</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I49" t="n">
         <v>1.417989417989418</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.05291005291005291</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L49" t="n">
         <v>0.08465608465608467</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-11-30</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7441670105848614177</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B50" t="n">
         <v>10600</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C50" t="n">
         <v>733</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D50" t="n">
         <v>6</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>72</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>24 surprises pour sublimer vos ongles et votre look tout en comptant les jours jusqu’à Noël ! Un packaging féerique, parfait à offrir ou à s’offrir 🎁</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H50" t="n">
         <v>6.971698113207547</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I50" t="n">
         <v>6.915094339622642</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.05660377358490566</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L50" t="n">
         <v>0.6792452830188679</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-11-27</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laurasptt/video/7440518326901591328</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B51" t="n">
         <v>10900</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C51" t="n">
         <v>317</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D51" t="n">
         <v>30</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>31</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Crash test du rouge à lèvres 2-en-1 de
 @SHEGLAM : pratique et validé
 #sheglam #sheglamreview #sheglamlipstick</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H51" t="n">
         <v>3.18348623853211</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I51" t="n">
         <v>2.908256880733945</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.2752293577981652</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L51" t="n">
         <v>0.2844036697247707</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-11-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@laurasptt/video/7440146089522629921</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>11800</v>
-      </c>
-      <c r="C49" t="n">
-        <v>479</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>49</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Collaboration commerciale avec L'Oréal Paris Skincare 🧖‍♀️✨
-@L’Oréal Paris #lorealparis #skincare #produitoffert</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>4.076271186440678</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4.059322033898304</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.01694915254237288</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.4152542372881355</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2024-11-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@laurasptt/video/7439445378929413408</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>18400</v>
-      </c>
-      <c r="C50" t="n">
-        <v>411</v>
-      </c>
-      <c r="D50" t="n">
-        <v>13</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>33</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Crash test du rouge à lèvres 2-en-1 de @SHEGLAM : pratique et validé 💄
-#sheglam #sheglamreview</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>2.304347826086957</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.233695652173913</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.07065217391304349</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.1793478260869565</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-11-23</t>
         </is>
       </c>
     </row>
